--- a/REGULAR/OJT/NEW DONE/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS JOSEPHINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB5F2E-1482-42B9-9D4D-2093069F43FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="367">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1150,7 +1149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1845,26 +1844,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K635" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K636" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K636"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2171,33 +2170,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K635"/>
+  <dimension ref="A2:K636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3408" topLeftCell="A135" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="3405" topLeftCell="A615" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D625" sqref="D625"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2220,7 +2219,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2242,7 +2241,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2263,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2272,7 +2271,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2285,7 +2284,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2302,7 +2301,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2346,7 +2345,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76.432999999999879</v>
+        <v>75.432999999999879</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2361,7 +2360,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>124</v>
       </c>
@@ -2379,7 +2378,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36395</v>
       </c>
@@ -2399,7 +2398,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36404</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36434</v>
@@ -2440,7 +2439,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A15" si="0">EDATE(A13,1)</f>
         <v>36465</v>
@@ -2461,7 +2460,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -2486,7 +2485,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>126</v>
       </c>
@@ -2504,7 +2503,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>EDATE(A15,1)</f>
         <v>36526</v>
@@ -2529,7 +2528,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f>EDATE(A17,1)</f>
         <v>36557</v>
@@ -2550,7 +2549,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" ref="A19:A28" si="1">EDATE(A18,1)</f>
         <v>36586</v>
@@ -2575,7 +2574,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -2600,7 +2599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -2625,7 +2624,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -2650,7 +2649,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -2671,7 +2670,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -2696,7 +2695,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>105</v>
@@ -2715,7 +2714,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36770</v>
@@ -2736,7 +2735,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>36800</v>
@@ -2765,7 +2764,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -2792,7 +2791,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>104</v>
@@ -2809,7 +2808,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36861</v>
@@ -2834,7 +2833,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>133</v>
@@ -2854,7 +2853,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>138</v>
       </c>
@@ -2872,7 +2871,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A30,1)</f>
         <v>36892</v>
@@ -2899,7 +2898,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A33,1)</f>
         <v>36923</v>
@@ -2926,7 +2925,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" ref="A35:A43" si="2">EDATE(A34,1)</f>
         <v>36951</v>
@@ -2951,7 +2950,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -2976,7 +2975,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A36,1)</f>
         <v>37012</v>
@@ -3003,7 +3002,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>104</v>
@@ -3020,7 +3019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>37043</v>
@@ -3047,7 +3046,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -3074,7 +3073,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -3101,7 +3100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -3122,7 +3121,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -3149,7 +3148,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>105</v>
@@ -3168,7 +3167,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>143</v>
@@ -3185,7 +3184,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EDATE(A43,1)</f>
         <v>37196</v>
@@ -3210,7 +3209,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>144</v>
@@ -3229,7 +3228,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>106</v>
@@ -3248,7 +3247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>123</v>
@@ -3267,7 +3266,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>147</v>
@@ -3284,7 +3283,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A46,1)</f>
         <v>37226</v>
@@ -3309,7 +3308,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>107</v>
@@ -3329,7 +3328,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>149</v>
       </c>
@@ -3347,7 +3346,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f>EDATE(A51,1)</f>
         <v>37257</v>
@@ -3374,7 +3373,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>150</v>
@@ -3391,7 +3390,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>104</v>
@@ -3408,7 +3407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f>EDATE(A54,1)</f>
         <v>37288</v>
@@ -3433,7 +3432,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" ref="A58:A73" si="3">EDATE(A57,1)</f>
         <v>37316</v>
@@ -3458,7 +3457,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -3485,7 +3484,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>105</v>
@@ -3504,7 +3503,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>105</v>
@@ -3523,7 +3522,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -3540,7 +3539,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>153</v>
@@ -3557,7 +3556,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A59,1)</f>
         <v>37377</v>
@@ -3584,7 +3583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -3601,7 +3600,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>104</v>
@@ -3618,7 +3617,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f>EDATE(A64,1)</f>
         <v>37408</v>
@@ -3645,7 +3644,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -3672,7 +3671,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>106</v>
@@ -3691,7 +3690,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>106</v>
@@ -3710,7 +3709,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>37469</v>
@@ -3735,7 +3734,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -3760,7 +3759,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -3787,7 +3786,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>37561</v>
@@ -3814,7 +3813,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -3833,7 +3832,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A74,1)</f>
         <v>37591</v>
@@ -3860,7 +3859,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>103</v>
@@ -3877,7 +3876,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>154</v>
       </c>
@@ -3895,7 +3894,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f>EDATE(A76,1)</f>
         <v>37622</v>
@@ -3922,7 +3921,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f>EDATE(A79,1)</f>
         <v>37653</v>
@@ -3949,7 +3948,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>163</v>
@@ -3966,7 +3965,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>37681</v>
@@ -3991,7 +3990,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" ref="A83:A98" si="4">EDATE(A82,1)</f>
         <v>37712</v>
@@ -4018,7 +4017,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>104</v>
@@ -4035,7 +4034,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>123</v>
@@ -4054,7 +4053,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>105</v>
@@ -4073,7 +4072,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>166</v>
@@ -4090,7 +4089,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="51"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A83,1)</f>
         <v>37742</v>
@@ -4115,7 +4114,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>105</v>
@@ -4134,7 +4133,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>105</v>
@@ -4153,7 +4152,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A88,1)</f>
         <v>37773</v>
@@ -4178,7 +4177,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -4205,7 +4204,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>105</v>
@@ -4224,7 +4223,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f>EDATE(A92,1)</f>
         <v>37834</v>
@@ -4251,7 +4250,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>105</v>
@@ -4270,7 +4269,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>168</v>
@@ -4287,7 +4286,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f>EDATE(A94,1)</f>
         <v>37865</v>
@@ -4312,7 +4311,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -4339,7 +4338,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>104</v>
@@ -4356,7 +4355,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>121</v>
@@ -4375,7 +4374,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>170</v>
@@ -4392,7 +4391,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A98,1)</f>
         <v>37926</v>
@@ -4419,7 +4418,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>123</v>
@@ -4438,7 +4437,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>105</v>
@@ -4457,7 +4456,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>173</v>
@@ -4474,7 +4473,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="51"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A102,1)</f>
         <v>37956</v>
@@ -4499,7 +4498,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>175</v>
       </c>
@@ -4517,7 +4516,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f>EDATE(A106,1)</f>
         <v>37987</v>
@@ -4544,7 +4543,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>105</v>
@@ -4563,7 +4562,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>105</v>
@@ -4582,7 +4581,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>176</v>
@@ -4599,7 +4598,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A108,1)</f>
         <v>38018</v>
@@ -4626,7 +4625,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>177</v>
@@ -4643,7 +4642,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38047</v>
@@ -4670,7 +4669,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>178</v>
@@ -4687,7 +4686,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>38078</v>
@@ -4714,7 +4713,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>104</v>
@@ -4731,7 +4730,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>180</v>
@@ -4748,7 +4747,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f>EDATE(A116,1)</f>
         <v>38108</v>
@@ -4773,7 +4772,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>105</v>
@@ -4792,7 +4791,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>105</v>
@@ -4811,7 +4810,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>182</v>
@@ -4828,7 +4827,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A119,1)</f>
         <v>38139</v>
@@ -4855,7 +4854,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>104</v>
@@ -4872,7 +4871,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>183</v>
@@ -4891,7 +4890,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A123,1)</f>
         <v>38169</v>
@@ -4916,7 +4915,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" ref="A127:A128" si="5">EDATE(A126,1)</f>
         <v>38200</v>
@@ -4941,7 +4940,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -4968,7 +4967,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>106</v>
@@ -4987,7 +4986,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>163</v>
@@ -5004,7 +5003,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EDATE(A128,1)</f>
         <v>38261</v>
@@ -5031,7 +5030,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>188</v>
@@ -5048,7 +5047,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>38292</v>
@@ -5075,7 +5074,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>123</v>
@@ -5094,7 +5093,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>104</v>
@@ -5111,7 +5110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>189</v>
@@ -5128,7 +5127,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A133,1)</f>
         <v>38322</v>
@@ -5155,7 +5154,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>191</v>
@@ -5175,7 +5174,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>193</v>
       </c>
@@ -5193,7 +5192,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f>EDATE(A137,1)</f>
         <v>38353</v>
@@ -5220,7 +5219,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>105</v>
@@ -5239,7 +5238,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>105</v>
@@ -5258,7 +5257,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>194</v>
@@ -5275,7 +5274,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A140,1)</f>
         <v>38384</v>
@@ -5302,7 +5301,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>195</v>
@@ -5319,7 +5318,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="51"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f>EDATE(A144,1)</f>
         <v>38412</v>
@@ -5344,7 +5343,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" ref="A147:A165" si="6">EDATE(A146,1)</f>
         <v>38443</v>
@@ -5369,7 +5368,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>105</v>
@@ -5388,7 +5387,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>105</v>
@@ -5407,7 +5406,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>105</v>
@@ -5426,7 +5425,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>197</v>
@@ -5443,7 +5442,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A147,1)</f>
         <v>38473</v>
@@ -5468,7 +5467,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>105</v>
@@ -5487,7 +5486,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -5506,7 +5505,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>104</v>
@@ -5523,7 +5522,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>199</v>
@@ -5540,7 +5539,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A152,1)</f>
         <v>38504</v>
@@ -5567,7 +5566,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>105</v>
@@ -5586,7 +5585,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>105</v>
@@ -5605,7 +5604,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>105</v>
@@ -5624,7 +5623,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>127</v>
@@ -5641,7 +5640,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>38534</v>
@@ -5668,7 +5667,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>200</v>
@@ -5685,7 +5684,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>38565</v>
@@ -5710,7 +5709,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -5737,7 +5736,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>105</v>
@@ -5756,7 +5755,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>202</v>
@@ -5773,7 +5772,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f>EDATE(A165,1)</f>
         <v>38626</v>
@@ -5800,7 +5799,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>106</v>
@@ -5819,7 +5818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>203</v>
@@ -5836,7 +5835,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>38657</v>
@@ -5863,7 +5862,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>105</v>
@@ -5882,7 +5881,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>132</v>
@@ -5901,7 +5900,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>205</v>
@@ -5918,7 +5917,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A171,1)</f>
         <v>38687</v>
@@ -5943,7 +5942,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>208</v>
       </c>
@@ -5961,7 +5960,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>38718</v>
@@ -5988,7 +5987,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>209</v>
@@ -6005,7 +6004,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>38749</v>
@@ -6032,7 +6031,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>105</v>
@@ -6054,7 +6053,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>105</v>
@@ -6076,7 +6075,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>105</v>
@@ -6098,7 +6097,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>105</v>
@@ -6120,7 +6119,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>105</v>
@@ -6142,7 +6141,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>105</v>
@@ -6164,7 +6163,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>210</v>
@@ -6184,7 +6183,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f>EDATE(A179,1)</f>
         <v>38777</v>
@@ -6209,7 +6208,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>105</v>
@@ -6228,7 +6227,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>211</v>
@@ -6245,7 +6244,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>105</v>
@@ -6264,7 +6263,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>104</v>
@@ -6281,7 +6280,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A187,1)</f>
         <v>38808</v>
@@ -6306,7 +6305,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>107</v>
@@ -6328,7 +6327,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>105</v>
@@ -6350,7 +6349,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>214</v>
@@ -6372,7 +6371,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>38838</v>
@@ -6399,7 +6398,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>104</v>
@@ -6416,7 +6415,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>216</v>
@@ -6433,7 +6432,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>38869</v>
@@ -6460,7 +6459,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>217</v>
@@ -6477,7 +6476,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EDATE(A199,1)</f>
         <v>38899</v>
@@ -6504,7 +6503,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>218</v>
@@ -6521,7 +6520,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>38930</v>
@@ -6548,7 +6547,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>106</v>
@@ -6567,7 +6566,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>220</v>
@@ -6584,7 +6583,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>38961</v>
@@ -6611,7 +6610,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>221</v>
@@ -6628,7 +6627,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A206,1)</f>
         <v>38991</v>
@@ -6655,7 +6654,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>222</v>
@@ -6672,7 +6671,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f>EDATE(A208,1)</f>
         <v>39022</v>
@@ -6699,7 +6698,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>107</v>
@@ -6718,7 +6717,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>105</v>
@@ -6737,7 +6736,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>105</v>
@@ -6756,7 +6755,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>223</v>
@@ -6773,7 +6772,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f t="shared" ref="A215" si="7">EDATE(A210,1)</f>
         <v>39052</v>
@@ -6798,7 +6797,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>225</v>
@@ -6818,7 +6817,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>226</v>
       </c>
@@ -6836,7 +6835,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A215,1)</f>
         <v>39083</v>
@@ -6863,7 +6862,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>227</v>
@@ -6880,7 +6879,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A218,1)</f>
         <v>39114</v>
@@ -6905,7 +6904,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" ref="A221:A240" si="8">EDATE(A220,1)</f>
         <v>39142</v>
@@ -6932,7 +6931,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>229</v>
@@ -6949,7 +6948,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>39173</v>
@@ -6976,7 +6975,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>104</v>
@@ -6993,7 +6992,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>105</v>
@@ -7012,7 +7011,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>231</v>
@@ -7029,7 +7028,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="51"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A223,1)</f>
         <v>39203</v>
@@ -7056,7 +7055,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>105</v>
@@ -7073,7 +7072,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>105</v>
@@ -7090,7 +7089,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>105</v>
@@ -7107,7 +7106,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>105</v>
@@ -7124,7 +7123,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>104</v>
@@ -7141,7 +7140,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>232</v>
@@ -7158,7 +7157,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A227,1)</f>
         <v>39234</v>
@@ -7185,7 +7184,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>166</v>
@@ -7202,7 +7201,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>39264</v>
@@ -7229,7 +7228,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>234</v>
@@ -7246,7 +7245,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>105</v>
@@ -7265,7 +7264,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>39295</v>
@@ -7290,7 +7289,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7317,7 +7316,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>103</v>
@@ -7336,7 +7335,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>236</v>
@@ -7353,7 +7352,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>39356</v>
@@ -7380,7 +7379,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>238</v>
@@ -7397,7 +7396,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>39387</v>
@@ -7424,7 +7423,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>105</v>
@@ -7443,7 +7442,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>104</v>
@@ -7460,7 +7459,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>105</v>
@@ -7479,7 +7478,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>240</v>
@@ -7496,7 +7495,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A245,1)</f>
         <v>39417</v>
@@ -7521,7 +7520,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>244</v>
       </c>
@@ -7539,7 +7538,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f>EDATE(A250,1)</f>
         <v>39448</v>
@@ -7566,7 +7565,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>245</v>
@@ -7583,7 +7582,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A252,1)</f>
         <v>39479</v>
@@ -7610,7 +7609,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>246</v>
@@ -7627,7 +7626,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>39508</v>
@@ -7654,7 +7653,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>105</v>
@@ -7673,7 +7672,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>105</v>
@@ -7692,7 +7691,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>248</v>
@@ -7709,7 +7708,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A256,1)</f>
         <v>39539</v>
@@ -7736,7 +7735,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>104</v>
@@ -7753,7 +7752,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>104</v>
@@ -7770,7 +7769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>251</v>
@@ -7787,7 +7786,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A260,1)</f>
         <v>39569</v>
@@ -7814,7 +7813,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>105</v>
@@ -7833,7 +7832,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>252</v>
@@ -7850,7 +7849,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="51"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>39600</v>
@@ -7875,7 +7874,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>254</v>
@@ -7892,7 +7891,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A267,1)</f>
         <v>39630</v>
@@ -7919,7 +7918,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>106</v>
@@ -7938,7 +7937,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>257</v>
@@ -7955,7 +7954,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="51"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f>EDATE(A269,1)</f>
         <v>39661</v>
@@ -7982,7 +7981,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>260</v>
@@ -7999,7 +7998,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A272,1)</f>
         <v>39692</v>
@@ -8026,7 +8025,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>105</v>
@@ -8045,7 +8044,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>261</v>
@@ -8062,7 +8061,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f>EDATE(A274,1)</f>
         <v>39722</v>
@@ -8089,7 +8088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>103</v>
@@ -8108,7 +8107,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A277,1)</f>
         <v>39753</v>
@@ -8135,7 +8134,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f t="shared" ref="A280" si="9">EDATE(A279,1)</f>
         <v>39783</v>
@@ -8162,7 +8161,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="48" t="s">
         <v>263</v>
       </c>
@@ -8180,7 +8179,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>39814</v>
@@ -8207,7 +8206,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>264</v>
@@ -8224,7 +8223,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A282,1)</f>
         <v>39845</v>
@@ -8251,7 +8250,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>105</v>
@@ -8270,7 +8269,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>265</v>
@@ -8287,7 +8286,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>39873</v>
@@ -8314,7 +8313,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>266</v>
@@ -8331,7 +8330,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A287,1)</f>
         <v>39904</v>
@@ -8358,7 +8357,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>267</v>
@@ -8375,7 +8374,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A289,1)</f>
         <v>39934</v>
@@ -8402,7 +8401,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>104</v>
@@ -8419,7 +8418,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>105</v>
@@ -8438,7 +8437,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>104</v>
@@ -8455,7 +8454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>269</v>
@@ -8472,7 +8471,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f>EDATE(A291,1)</f>
         <v>39965</v>
@@ -8497,7 +8496,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f t="shared" ref="A297:A301" si="10">EDATE(A296,1)</f>
         <v>39995</v>
@@ -8518,7 +8517,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <f t="shared" si="10"/>
         <v>40026</v>
@@ -8539,7 +8538,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -8560,7 +8559,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f t="shared" si="10"/>
         <v>40087</v>
@@ -8581,7 +8580,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f t="shared" si="10"/>
         <v>40118</v>
@@ -8608,7 +8607,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f>EDATE(A301,1)</f>
         <v>40148</v>
@@ -8635,7 +8634,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>274</v>
@@ -8655,7 +8654,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="48" t="s">
         <v>275</v>
       </c>
@@ -8673,7 +8672,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f>EDATE(A302,1)</f>
         <v>40179</v>
@@ -8694,7 +8693,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A305,1)</f>
         <v>40210</v>
@@ -8715,7 +8714,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f t="shared" ref="A307:A315" si="11">EDATE(A306,1)</f>
         <v>40238</v>
@@ -8736,7 +8735,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f t="shared" si="11"/>
         <v>40269</v>
@@ -8757,7 +8756,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" si="11"/>
         <v>40299</v>
@@ -8778,7 +8777,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -8799,7 +8798,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f t="shared" si="11"/>
         <v>40360</v>
@@ -8820,7 +8819,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f t="shared" si="11"/>
         <v>40391</v>
@@ -8841,7 +8840,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f t="shared" si="11"/>
         <v>40422</v>
@@ -8862,7 +8861,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" si="11"/>
         <v>40452</v>
@@ -8883,7 +8882,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <f t="shared" si="11"/>
         <v>40483</v>
@@ -8904,7 +8903,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -8929,7 +8928,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>276</v>
       </c>
@@ -8947,7 +8946,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f>EDATE(A316,1)</f>
         <v>40544</v>
@@ -8972,7 +8971,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A318,1)</f>
         <v>40575</v>
@@ -8999,7 +8998,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>105</v>
@@ -9018,7 +9017,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>104</v>
@@ -9035,7 +9034,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>105</v>
@@ -9054,7 +9053,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>278</v>
@@ -9071,7 +9070,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>40603</v>
@@ -9096,7 +9095,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>280</v>
@@ -9113,7 +9112,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>40634</v>
@@ -9140,7 +9139,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>104</v>
@@ -9157,7 +9156,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>105</v>
@@ -9176,7 +9175,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>283</v>
@@ -9193,7 +9192,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A326,1)</f>
         <v>40664</v>
@@ -9220,7 +9219,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>284</v>
@@ -9237,7 +9236,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f>EDATE(A330,1)</f>
         <v>40695</v>
@@ -9264,7 +9263,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>285</v>
@@ -9281,7 +9280,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>40725</v>
@@ -9306,7 +9305,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>105</v>
@@ -9325,7 +9324,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>40756</v>
@@ -9350,7 +9349,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f t="shared" ref="A337" si="12">EDATE(A336,1)</f>
         <v>40787</v>
@@ -9377,7 +9376,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>261</v>
@@ -9394,7 +9393,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A337,1)</f>
         <v>40817</v>
@@ -9421,7 +9420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>288</v>
@@ -9438,7 +9437,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="51"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>40848</v>
@@ -9463,7 +9462,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>105</v>
@@ -9482,7 +9481,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>40878</v>
@@ -9509,7 +9508,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>292</v>
@@ -9529,7 +9528,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>293</v>
       </c>
@@ -9547,7 +9546,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>40909</v>
@@ -9574,7 +9573,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>105</v>
@@ -9593,7 +9592,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>294</v>
@@ -9610,7 +9609,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="51"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>40940</v>
@@ -9637,7 +9636,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>295</v>
@@ -9654,7 +9653,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f>EDATE(A349,1)</f>
         <v>40969</v>
@@ -9681,7 +9680,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>186</v>
@@ -9698,7 +9697,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>41000</v>
@@ -9723,7 +9722,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>104</v>
@@ -9740,7 +9739,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>296</v>
@@ -9757,7 +9756,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A353,1)</f>
         <v>41030</v>
@@ -9784,7 +9783,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>105</v>
@@ -9803,7 +9802,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>104</v>
@@ -9820,7 +9819,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>298</v>
@@ -9837,7 +9836,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f>EDATE(A356,1)</f>
         <v>41061</v>
@@ -9864,7 +9863,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>299</v>
@@ -9881,7 +9880,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f>EDATE(A360,1)</f>
         <v>41091</v>
@@ -9906,7 +9905,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f t="shared" ref="A363:A373" si="13">EDATE(A362,1)</f>
         <v>41122</v>
@@ -9933,7 +9932,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>300</v>
@@ -9950,7 +9949,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>41153</v>
@@ -9977,7 +9976,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>107</v>
@@ -9996,7 +9995,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>294</v>
@@ -10013,7 +10012,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41183</v>
@@ -10040,7 +10039,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>107</v>
@@ -10059,7 +10058,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>107</v>
@@ -10078,7 +10077,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>301</v>
@@ -10095,7 +10094,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A368,1)</f>
         <v>41214</v>
@@ -10120,7 +10119,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <f t="shared" si="13"/>
         <v>41244</v>
@@ -10147,7 +10146,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>303</v>
@@ -10167,7 +10166,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>304</v>
       </c>
@@ -10185,7 +10184,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <f>EDATE(A373,1)</f>
         <v>41275</v>
@@ -10212,7 +10211,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>104</v>
@@ -10229,7 +10228,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>305</v>
@@ -10246,7 +10245,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A376,1)</f>
         <v>41306</v>
@@ -10271,7 +10270,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f t="shared" ref="A380:A392" si="14">EDATE(A379,1)</f>
         <v>41334</v>
@@ -10296,7 +10295,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -10323,7 +10322,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>104</v>
@@ -10340,7 +10339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>308</v>
@@ -10357,7 +10356,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A381,1)</f>
         <v>41395</v>
@@ -10384,7 +10383,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>104</v>
@@ -10401,7 +10400,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>309</v>
@@ -10418,7 +10417,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f>EDATE(A384,1)</f>
         <v>41426</v>
@@ -10445,7 +10444,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10464,7 +10463,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>296</v>
@@ -10481,7 +10480,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <f>EDATE(A387,1)</f>
         <v>41456</v>
@@ -10506,7 +10505,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -10531,7 +10530,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -10558,7 +10557,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>312</v>
@@ -10575,7 +10574,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A392,1)</f>
         <v>41548</v>
@@ -10602,7 +10601,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>313</v>
@@ -10619,7 +10618,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <f>EDATE(A394,1)</f>
         <v>41579</v>
@@ -10646,7 +10645,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>107</v>
@@ -10665,7 +10664,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>107</v>
@@ -10684,7 +10683,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>107</v>
@@ -10703,7 +10702,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>105</v>
@@ -10722,7 +10721,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>315</v>
@@ -10739,7 +10738,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="51"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A396,1)</f>
         <v>41609</v>
@@ -10766,7 +10765,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>107</v>
@@ -10788,7 +10787,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>105</v>
@@ -10810,7 +10809,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>316</v>
@@ -10832,7 +10831,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="48" t="s">
         <v>318</v>
       </c>
@@ -10850,7 +10849,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f>EDATE(A402,1)</f>
         <v>41640</v>
@@ -10875,7 +10874,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>319</v>
@@ -10892,7 +10891,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f>EDATE(A407,1)</f>
         <v>41671</v>
@@ -10917,7 +10916,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f t="shared" ref="A410:A423" si="15">EDATE(A409,1)</f>
         <v>41699</v>
@@ -10942,7 +10941,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>321</v>
@@ -10959,7 +10958,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A410,1)</f>
         <v>41730</v>
@@ -10984,7 +10983,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f t="shared" si="15"/>
         <v>41760</v>
@@ -11011,7 +11010,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>104</v>
@@ -11028,7 +11027,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>107</v>
@@ -11047,7 +11046,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>107</v>
@@ -11066,7 +11065,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>323</v>
@@ -11083,7 +11082,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f>EDATE(A413,1)</f>
         <v>41791</v>
@@ -11108,7 +11107,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f t="shared" si="15"/>
         <v>41821</v>
@@ -11135,7 +11134,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>105</v>
@@ -11154,7 +11153,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>326</v>
@@ -11171,7 +11170,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f>EDATE(A419,1)</f>
         <v>41852</v>
@@ -11196,7 +11195,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -11223,7 +11222,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>105</v>
@@ -11242,7 +11241,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>105</v>
@@ -11261,7 +11260,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>103</v>
@@ -11280,7 +11279,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>328</v>
@@ -11297,7 +11296,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A423,1)</f>
         <v>41913</v>
@@ -11324,7 +11323,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>105</v>
@@ -11343,7 +11342,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>205</v>
@@ -11360,7 +11359,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>41944</v>
@@ -11387,7 +11386,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>107</v>
@@ -11406,7 +11405,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>331</v>
@@ -11423,7 +11422,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A431,1)</f>
         <v>41974</v>
@@ -11450,7 +11449,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="48" t="s">
         <v>332</v>
       </c>
@@ -11468,7 +11467,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <f>EDATE(A434,1)</f>
         <v>42005</v>
@@ -11493,7 +11492,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>104</v>
@@ -11510,7 +11509,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>335</v>
@@ -11527,7 +11526,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f>EDATE(A436,1)</f>
         <v>42036</v>
@@ -11552,7 +11551,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f t="shared" ref="A440:A453" si="16">EDATE(A439,1)</f>
         <v>42064</v>
@@ -11579,7 +11578,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>107</v>
@@ -11598,7 +11597,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>337</v>
@@ -11615,7 +11614,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <f>EDATE(A440,1)</f>
         <v>42095</v>
@@ -11640,7 +11639,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f t="shared" si="16"/>
         <v>42125</v>
@@ -11667,7 +11666,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -11686,7 +11685,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>223</v>
@@ -11703,7 +11702,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f>EDATE(A444,1)</f>
         <v>42156</v>
@@ -11730,7 +11729,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>340</v>
@@ -11747,7 +11746,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A447,1)</f>
         <v>42186</v>
@@ -11774,7 +11773,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>105</v>
@@ -11793,7 +11792,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>71</v>
@@ -11810,7 +11809,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <f>EDATE(A449,1)</f>
         <v>42217</v>
@@ -11835,7 +11834,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -11862,7 +11861,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>227</v>
@@ -11879,7 +11878,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <f>EDATE(A453,1)</f>
         <v>42278</v>
@@ -11906,7 +11905,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>107</v>
@@ -11925,7 +11924,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>107</v>
@@ -11944,7 +11943,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>235</v>
@@ -11961,7 +11960,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f>EDATE(A455,1)</f>
         <v>42309</v>
@@ -11988,7 +11987,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>105</v>
@@ -12007,7 +12006,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>343</v>
@@ -12024,7 +12023,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>42339</v>
@@ -12051,7 +12050,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23"/>
       <c r="B463" s="20" t="s">
         <v>345</v>
@@ -12071,7 +12070,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
         <v>346</v>
       </c>
@@ -12089,7 +12088,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <f>EDATE(A462,1)</f>
         <v>42370</v>
@@ -12114,7 +12113,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A465,1)</f>
         <v>42401</v>
@@ -12139,7 +12138,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>105</v>
@@ -12158,7 +12157,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>105</v>
@@ -12177,7 +12176,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23"/>
       <c r="B469" s="20" t="s">
         <v>348</v>
@@ -12194,7 +12193,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f>EDATE(A466,1)</f>
         <v>42430</v>
@@ -12219,7 +12218,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f t="shared" ref="A471:A478" si="17">EDATE(A470,1)</f>
         <v>42461</v>
@@ -12244,7 +12243,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="17"/>
         <v>42491</v>
@@ -12269,7 +12268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23"/>
       <c r="B473" s="20" t="s">
         <v>105</v>
@@ -12288,7 +12287,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>327</v>
@@ -12305,7 +12304,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f>EDATE(A472,1)</f>
         <v>42522</v>
@@ -12332,7 +12331,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>352</v>
@@ -12349,7 +12348,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="51"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <f>EDATE(A475,1)</f>
         <v>42552</v>
@@ -12374,7 +12373,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -12401,7 +12400,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23"/>
       <c r="B479" s="20" t="s">
         <v>354</v>
@@ -12418,7 +12417,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <f>EDATE(A478,1)</f>
         <v>42614</v>
@@ -12445,7 +12444,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>355</v>
@@ -12462,7 +12461,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A480,1)</f>
         <v>42644</v>
@@ -12489,7 +12488,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>103</v>
@@ -12508,7 +12507,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>357</v>
@@ -12525,7 +12524,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f>EDATE(A482,1)</f>
         <v>42675</v>
@@ -12550,7 +12549,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f>EDATE(A485,1)</f>
         <v>42705</v>
@@ -12575,7 +12574,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>361</v>
@@ -12592,7 +12591,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
         <v>360</v>
       </c>
@@ -12610,7 +12609,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f>EDATE(A486,1)</f>
         <v>42736</v>
@@ -12637,7 +12636,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23"/>
       <c r="B490" s="20" t="s">
         <v>104</v>
@@ -12654,7 +12653,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>201</v>
@@ -12671,7 +12670,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <f>EDATE(A489,1)</f>
         <v>42767</v>
@@ -12696,7 +12695,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <f t="shared" ref="A493:A507" si="18">EDATE(A492,1)</f>
         <v>42795</v>
@@ -12723,7 +12722,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>105</v>
@@ -12742,7 +12741,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>364</v>
@@ -12759,7 +12758,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="51"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <f>EDATE(A493,1)</f>
         <v>42826</v>
@@ -12784,7 +12783,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>105</v>
@@ -12803,7 +12802,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23"/>
       <c r="B498" s="20" t="s">
         <v>365</v>
@@ -12820,7 +12819,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <f>EDATE(A496,1)</f>
         <v>42856</v>
@@ -12847,7 +12846,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>104</v>
@@ -12864,7 +12863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
         <v>51</v>
@@ -12881,7 +12880,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <f>EDATE(A499,1)</f>
         <v>42887</v>
@@ -12908,7 +12907,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -12933,7 +12932,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -12958,7 +12957,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23">
         <f t="shared" si="18"/>
         <v>42979</v>
@@ -12983,7 +12982,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -13008,7 +13007,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -13035,7 +13034,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>123</v>
@@ -13054,7 +13053,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>123</v>
@@ -13073,7 +13072,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23"/>
       <c r="B510" s="20" t="s">
         <v>105</v>
@@ -13092,7 +13091,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <f>EDATE(A507,1)</f>
         <v>43070</v>
@@ -13117,7 +13116,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>48</v>
       </c>
@@ -13139,7 +13138,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43101</v>
       </c>
@@ -13159,7 +13158,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43132</v>
       </c>
@@ -13183,7 +13182,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>105</v>
@@ -13205,7 +13204,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43160</v>
       </c>
@@ -13225,7 +13224,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43191</v>
       </c>
@@ -13245,7 +13244,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="41">
         <v>43221</v>
       </c>
@@ -13267,7 +13266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>49</v>
@@ -13289,7 +13288,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>43252</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43282</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>104</v>
@@ -13359,7 +13358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>51</v>
@@ -13381,7 +13380,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43313</v>
       </c>
@@ -13405,7 +13404,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43344</v>
       </c>
@@ -13429,7 +13428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>55</v>
@@ -13451,7 +13450,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43374</v>
       </c>
@@ -13477,7 +13476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>108</v>
@@ -13499,7 +13498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>108</v>
@@ -13521,7 +13520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>60</v>
@@ -13543,7 +13542,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43405</v>
       </c>
@@ -13563,7 +13562,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43435</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>107</v>
@@ -13609,7 +13608,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="49"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="48" t="s">
         <v>61</v>
       </c>
@@ -13627,7 +13626,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43466</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43497</v>
       </c>
@@ -13677,7 +13676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>111</v>
@@ -13699,7 +13698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>112</v>
@@ -13725,7 +13724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43525</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43556</v>
       </c>
@@ -13773,7 +13772,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43586</v>
       </c>
@@ -13801,7 +13800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43617</v>
       </c>
@@ -13829,7 +13828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43647</v>
       </c>
@@ -13855,7 +13854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>104</v>
@@ -13875,7 +13874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>107</v>
@@ -13897,7 +13896,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>104</v>
@@ -13921,7 +13920,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43678</v>
       </c>
@@ -13945,7 +13944,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43709</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>123</v>
@@ -13991,7 +13990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>104</v>
@@ -14011,7 +14010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>106</v>
@@ -14033,7 +14032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>123</v>
@@ -14055,7 +14054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>72</v>
@@ -14075,7 +14074,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>43739</v>
       </c>
@@ -14101,7 +14100,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>107</v>
@@ -14123,7 +14122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>77</v>
@@ -14145,7 +14144,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43770</v>
       </c>
@@ -14169,7 +14168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>117</v>
@@ -14191,7 +14190,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="49"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>43800</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>43567</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>144</v>
@@ -14237,7 +14236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>81</v>
@@ -14259,7 +14258,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14275,7 +14274,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="48" t="s">
         <v>83</v>
       </c>
@@ -14293,7 +14292,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>43831</v>
       </c>
@@ -14317,7 +14316,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>119</v>
@@ -14337,7 +14336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>120</v>
@@ -14359,7 +14358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>43862</v>
       </c>
@@ -14379,7 +14378,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>43891</v>
       </c>
@@ -14399,7 +14398,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>43922</v>
       </c>
@@ -14419,7 +14418,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43952</v>
       </c>
@@ -14439,7 +14438,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>43983</v>
       </c>
@@ -14463,7 +14462,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>105</v>
@@ -14485,7 +14484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44013</v>
       </c>
@@ -14509,7 +14508,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>105</v>
@@ -14531,7 +14530,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>106</v>
@@ -14553,7 +14552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>106</v>
@@ -14575,7 +14574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>118</v>
@@ -14599,7 +14598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>44044</v>
       </c>
@@ -14619,7 +14618,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>44075</v>
       </c>
@@ -14639,7 +14638,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>44105</v>
       </c>
@@ -14659,7 +14658,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>44136</v>
       </c>
@@ -14679,7 +14678,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>44166</v>
       </c>
@@ -14703,7 +14702,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="23" t="s">
         <v>90</v>
       </c>
@@ -14721,7 +14720,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44197</v>
       </c>
@@ -14741,7 +14740,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44228</v>
       </c>
@@ -14761,7 +14760,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44256</v>
       </c>
@@ -14781,7 +14780,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44287</v>
       </c>
@@ -14801,7 +14800,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44317</v>
       </c>
@@ -14821,7 +14820,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44348</v>
       </c>
@@ -14841,7 +14840,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44378</v>
       </c>
@@ -14861,7 +14860,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44409</v>
       </c>
@@ -14885,7 +14884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>44440</v>
       </c>
@@ -14905,7 +14904,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>44470</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44501</v>
       </c>
@@ -14953,7 +14952,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>121</v>
@@ -14977,7 +14976,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>123</v>
@@ -15001,7 +15000,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>121</v>
@@ -15025,7 +15024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>44531</v>
       </c>
@@ -15045,7 +15044,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="48" t="s">
         <v>95</v>
       </c>
@@ -15063,7 +15062,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44562</v>
       </c>
@@ -15083,7 +15082,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>44593</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44621</v>
       </c>
@@ -15131,7 +15130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44652</v>
       </c>
@@ -15157,7 +15156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44682</v>
       </c>
@@ -15177,7 +15176,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>44713</v>
       </c>
@@ -15201,7 +15200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>104</v>
@@ -15223,7 +15222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>44743</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>105</v>
@@ -15269,7 +15268,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>123</v>
@@ -15293,7 +15292,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>44774</v>
       </c>
@@ -15313,7 +15312,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44805</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44835</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>105</v>
@@ -15387,7 +15386,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44866</v>
       </c>
@@ -15407,7 +15406,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>44896</v>
       </c>
@@ -15427,7 +15426,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="48" t="s">
         <v>122</v>
       </c>
@@ -15445,7 +15444,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44927</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44958</v>
       </c>
@@ -15493,7 +15492,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44986</v>
       </c>
@@ -15519,7 +15518,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>123</v>
@@ -15541,7 +15540,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>45017</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>45047</v>
       </c>
@@ -15591,11 +15590,13 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>45078</v>
       </c>
-      <c r="B623" s="20"/>
+      <c r="B623" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
       <c r="E623" s="9"/>
@@ -15607,15 +15608,19 @@
       <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
-      <c r="K623" s="20"/>
-    </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B624" s="20"/>
+      <c r="K623" s="49">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="40"/>
+      <c r="B624" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C624" s="13"/>
-      <c r="D624" s="39"/>
+      <c r="D624" s="39">
+        <v>1</v>
+      </c>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
       <c r="G624" s="13" t="str">
@@ -15625,11 +15630,13 @@
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
-      <c r="K624" s="20"/>
-    </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K624" s="49">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15645,9 +15652,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15663,9 +15670,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15681,9 +15688,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15699,9 +15706,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15717,9 +15724,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15735,9 +15742,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15753,9 +15760,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15771,9 +15778,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15789,8 +15796,10 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A634" s="40"/>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="40">
+        <v>45383</v>
+      </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
@@ -15805,21 +15814,37 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635" s="41"/>
-      <c r="B635" s="15"/>
-      <c r="C635" s="42"/>
-      <c r="D635" s="43"/>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="40"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="39"/>
       <c r="E635" s="9"/>
-      <c r="F635" s="15"/>
-      <c r="G635" s="42" t="str">
+      <c r="F635" s="20"/>
+      <c r="G635" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H635" s="43"/>
+      <c r="H635" s="39"/>
       <c r="I635" s="9"/>
-      <c r="J635" s="12"/>
-      <c r="K635" s="15"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="20"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="41"/>
+      <c r="B636" s="15"/>
+      <c r="C636" s="42"/>
+      <c r="D636" s="43"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="15"/>
+      <c r="G636" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="43"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="12"/>
+      <c r="K636" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15836,10 +15861,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15862,28 +15887,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -15896,7 +15921,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15925,7 +15950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15949,17 +15974,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15980,7 +16005,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16007,7 +16032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16033,7 +16058,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16059,7 +16084,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16085,7 +16110,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16111,7 +16136,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16137,7 +16162,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16163,7 +16188,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16189,7 +16214,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16209,7 +16234,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16229,7 +16254,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16249,7 +16274,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16270,7 +16295,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16291,7 +16316,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16312,7 +16337,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16333,7 +16358,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16354,7 +16379,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16375,7 +16400,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16396,7 +16421,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16417,7 +16442,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16438,7 +16463,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16459,7 +16484,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16480,7 +16505,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16501,7 +16526,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16522,7 +16547,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16543,7 +16568,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16564,7 +16589,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16585,7 +16610,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16606,7 +16631,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16627,7 +16652,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16648,7 +16673,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16669,7 +16694,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16678,7 +16703,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16687,7 +16712,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16696,7 +16721,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16705,7 +16730,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16714,7 +16739,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16723,7 +16748,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16732,7 +16757,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16741,7 +16766,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16750,7 +16775,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16759,7 +16784,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16768,7 +16793,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16777,7 +16802,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16786,7 +16811,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16795,7 +16820,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16804,7 +16829,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16813,7 +16838,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16822,7 +16847,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16831,7 +16856,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16840,7 +16865,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16849,7 +16874,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16858,7 +16883,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16867,7 +16892,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16876,7 +16901,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16885,7 +16910,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16894,7 +16919,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16903,7 +16928,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16912,7 +16937,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16921,7 +16946,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16930,7 +16955,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DIMAPILIS JOSEPHINE.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS JOSEPHINE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC9409-5997-48F0-B353-3897FD3FD0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="367">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1149,7 +1150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1827,7 +1828,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1844,26 +1845,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K636" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K636"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K637" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K637" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2170,33 +2171,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K636"/>
+  <dimension ref="A2:K637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3405" topLeftCell="A615" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D625" sqref="D625"/>
+      <pane ySplit="3408" topLeftCell="A615" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B626" sqref="B626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +2220,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2241,7 +2242,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2264,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2271,7 +2272,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2284,7 +2285,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2301,7 +2302,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2345,7 +2346,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.432999999999879</v>
+        <v>74.432999999999879</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2360,7 +2361,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>124</v>
       </c>
@@ -2378,7 +2379,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36395</v>
       </c>
@@ -2398,7 +2399,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>36404</v>
       </c>
@@ -2418,7 +2419,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36434</v>
@@ -2439,7 +2440,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A15" si="0">EDATE(A13,1)</f>
         <v>36465</v>
@@ -2460,7 +2461,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -2485,7 +2486,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +2504,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f>EDATE(A15,1)</f>
         <v>36526</v>
@@ -2528,7 +2529,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f>EDATE(A17,1)</f>
         <v>36557</v>
@@ -2549,7 +2550,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" ref="A19:A28" si="1">EDATE(A18,1)</f>
         <v>36586</v>
@@ -2574,7 +2575,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -2599,7 +2600,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -2624,7 +2625,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -2649,7 +2650,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -2670,7 +2671,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -2695,7 +2696,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>105</v>
@@ -2714,7 +2715,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36770</v>
@@ -2735,7 +2736,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>36800</v>
@@ -2764,7 +2765,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -2791,7 +2792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>104</v>
@@ -2808,7 +2809,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36861</v>
@@ -2833,7 +2834,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>133</v>
@@ -2853,7 +2854,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>138</v>
       </c>
@@ -2871,7 +2872,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f>EDATE(A30,1)</f>
         <v>36892</v>
@@ -2898,7 +2899,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f>EDATE(A33,1)</f>
         <v>36923</v>
@@ -2925,7 +2926,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" ref="A35:A43" si="2">EDATE(A34,1)</f>
         <v>36951</v>
@@ -2950,7 +2951,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -2975,7 +2976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A36,1)</f>
         <v>37012</v>
@@ -3002,7 +3003,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>104</v>
@@ -3019,7 +3020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f>EDATE(A37,1)</f>
         <v>37043</v>
@@ -3046,7 +3047,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -3073,7 +3074,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -3100,7 +3101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -3121,7 +3122,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -3148,7 +3149,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>105</v>
@@ -3167,7 +3168,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>143</v>
@@ -3184,7 +3185,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>EDATE(A43,1)</f>
         <v>37196</v>
@@ -3209,7 +3210,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>144</v>
@@ -3228,7 +3229,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>106</v>
@@ -3247,7 +3248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>123</v>
@@ -3266,7 +3267,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>147</v>
@@ -3283,7 +3284,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f>EDATE(A46,1)</f>
         <v>37226</v>
@@ -3308,7 +3309,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>107</v>
@@ -3328,7 +3329,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>149</v>
       </c>
@@ -3346,7 +3347,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f>EDATE(A51,1)</f>
         <v>37257</v>
@@ -3373,7 +3374,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>150</v>
@@ -3390,7 +3391,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>104</v>
@@ -3407,7 +3408,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f>EDATE(A54,1)</f>
         <v>37288</v>
@@ -3432,7 +3433,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f t="shared" ref="A58:A73" si="3">EDATE(A57,1)</f>
         <v>37316</v>
@@ -3457,7 +3458,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -3484,7 +3485,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>105</v>
@@ -3503,7 +3504,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>105</v>
@@ -3522,7 +3523,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -3539,7 +3540,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>153</v>
@@ -3556,7 +3557,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A59,1)</f>
         <v>37377</v>
@@ -3583,7 +3584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -3600,7 +3601,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>104</v>
@@ -3617,7 +3618,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f>EDATE(A64,1)</f>
         <v>37408</v>
@@ -3644,7 +3645,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -3671,7 +3672,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>106</v>
@@ -3690,7 +3691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>106</v>
@@ -3709,7 +3710,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>37469</v>
@@ -3734,7 +3735,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -3759,7 +3760,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -3786,7 +3787,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>37561</v>
@@ -3813,7 +3814,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -3832,7 +3833,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f>EDATE(A74,1)</f>
         <v>37591</v>
@@ -3859,7 +3860,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>103</v>
@@ -3876,7 +3877,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>154</v>
       </c>
@@ -3894,7 +3895,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f>EDATE(A76,1)</f>
         <v>37622</v>
@@ -3921,7 +3922,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f>EDATE(A79,1)</f>
         <v>37653</v>
@@ -3948,7 +3949,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>163</v>
@@ -3965,7 +3966,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>37681</v>
@@ -3990,7 +3991,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" ref="A83:A98" si="4">EDATE(A82,1)</f>
         <v>37712</v>
@@ -4017,7 +4018,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>104</v>
@@ -4034,7 +4035,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>123</v>
@@ -4053,7 +4054,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>105</v>
@@ -4072,7 +4073,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>166</v>
@@ -4089,7 +4090,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="51"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f>EDATE(A83,1)</f>
         <v>37742</v>
@@ -4114,7 +4115,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>105</v>
@@ -4133,7 +4134,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>105</v>
@@ -4152,7 +4153,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f>EDATE(A88,1)</f>
         <v>37773</v>
@@ -4177,7 +4178,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -4204,7 +4205,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>105</v>
@@ -4223,7 +4224,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f>EDATE(A92,1)</f>
         <v>37834</v>
@@ -4250,7 +4251,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>105</v>
@@ -4269,7 +4270,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>168</v>
@@ -4286,7 +4287,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f>EDATE(A94,1)</f>
         <v>37865</v>
@@ -4311,7 +4312,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -4338,7 +4339,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>104</v>
@@ -4355,7 +4356,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>121</v>
@@ -4374,7 +4375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>170</v>
@@ -4391,7 +4392,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f>EDATE(A98,1)</f>
         <v>37926</v>
@@ -4418,7 +4419,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>123</v>
@@ -4437,7 +4438,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>105</v>
@@ -4456,7 +4457,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>173</v>
@@ -4473,7 +4474,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="51"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f>EDATE(A102,1)</f>
         <v>37956</v>
@@ -4498,7 +4499,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>175</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f>EDATE(A106,1)</f>
         <v>37987</v>
@@ -4543,7 +4544,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>105</v>
@@ -4562,7 +4563,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>105</v>
@@ -4581,7 +4582,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>176</v>
@@ -4598,7 +4599,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A108,1)</f>
         <v>38018</v>
@@ -4625,7 +4626,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>177</v>
@@ -4642,7 +4643,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38047</v>
@@ -4669,7 +4670,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>178</v>
@@ -4686,7 +4687,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>38078</v>
@@ -4713,7 +4714,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>104</v>
@@ -4730,7 +4731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>180</v>
@@ -4747,7 +4748,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A116,1)</f>
         <v>38108</v>
@@ -4772,7 +4773,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>105</v>
@@ -4791,7 +4792,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>105</v>
@@ -4810,7 +4811,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>182</v>
@@ -4827,7 +4828,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f>EDATE(A119,1)</f>
         <v>38139</v>
@@ -4854,7 +4855,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>104</v>
@@ -4871,7 +4872,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>183</v>
@@ -4890,7 +4891,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <f>EDATE(A123,1)</f>
         <v>38169</v>
@@ -4915,7 +4916,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f t="shared" ref="A127:A128" si="5">EDATE(A126,1)</f>
         <v>38200</v>
@@ -4940,7 +4941,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -4967,7 +4968,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>106</v>
@@ -4986,7 +4987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>163</v>
@@ -5003,7 +5004,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f>EDATE(A128,1)</f>
         <v>38261</v>
@@ -5030,7 +5031,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>188</v>
@@ -5047,7 +5048,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>38292</v>
@@ -5074,7 +5075,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>123</v>
@@ -5093,7 +5094,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>104</v>
@@ -5110,7 +5111,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>189</v>
@@ -5127,7 +5128,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f>EDATE(A133,1)</f>
         <v>38322</v>
@@ -5154,7 +5155,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>191</v>
@@ -5174,7 +5175,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>193</v>
       </c>
@@ -5192,7 +5193,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f>EDATE(A137,1)</f>
         <v>38353</v>
@@ -5219,7 +5220,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>105</v>
@@ -5238,7 +5239,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>105</v>
@@ -5257,7 +5258,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>194</v>
@@ -5274,7 +5275,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A140,1)</f>
         <v>38384</v>
@@ -5301,7 +5302,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>195</v>
@@ -5318,7 +5319,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="51"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f>EDATE(A144,1)</f>
         <v>38412</v>
@@ -5343,7 +5344,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f t="shared" ref="A147:A165" si="6">EDATE(A146,1)</f>
         <v>38443</v>
@@ -5368,7 +5369,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>105</v>
@@ -5387,7 +5388,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>105</v>
@@ -5406,7 +5407,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>105</v>
@@ -5425,7 +5426,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>197</v>
@@ -5442,7 +5443,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f>EDATE(A147,1)</f>
         <v>38473</v>
@@ -5467,7 +5468,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>105</v>
@@ -5486,7 +5487,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -5505,7 +5506,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>104</v>
@@ -5522,7 +5523,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>199</v>
@@ -5539,7 +5540,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f>EDATE(A152,1)</f>
         <v>38504</v>
@@ -5566,7 +5567,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>105</v>
@@ -5585,7 +5586,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>105</v>
@@ -5604,7 +5605,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>105</v>
@@ -5623,7 +5624,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>127</v>
@@ -5640,7 +5641,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>38534</v>
@@ -5667,7 +5668,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>200</v>
@@ -5684,7 +5685,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>38565</v>
@@ -5709,7 +5710,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -5736,7 +5737,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>105</v>
@@ -5755,7 +5756,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>202</v>
@@ -5772,7 +5773,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f>EDATE(A165,1)</f>
         <v>38626</v>
@@ -5799,7 +5800,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>106</v>
@@ -5818,7 +5819,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>203</v>
@@ -5835,7 +5836,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>38657</v>
@@ -5862,7 +5863,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>105</v>
@@ -5881,7 +5882,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>132</v>
@@ -5900,7 +5901,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>205</v>
@@ -5917,7 +5918,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A171,1)</f>
         <v>38687</v>
@@ -5942,7 +5943,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="48" t="s">
         <v>208</v>
       </c>
@@ -5960,7 +5961,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>38718</v>
@@ -5987,7 +5988,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>209</v>
@@ -6004,7 +6005,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>38749</v>
@@ -6031,7 +6032,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>105</v>
@@ -6053,7 +6054,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>105</v>
@@ -6075,7 +6076,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>105</v>
@@ -6097,7 +6098,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>105</v>
@@ -6119,7 +6120,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>105</v>
@@ -6141,7 +6142,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>105</v>
@@ -6163,7 +6164,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>210</v>
@@ -6183,7 +6184,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <f>EDATE(A179,1)</f>
         <v>38777</v>
@@ -6208,7 +6209,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>105</v>
@@ -6227,7 +6228,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>211</v>
@@ -6244,7 +6245,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>105</v>
@@ -6263,7 +6264,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>104</v>
@@ -6280,7 +6281,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f>EDATE(A187,1)</f>
         <v>38808</v>
@@ -6305,7 +6306,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>107</v>
@@ -6327,7 +6328,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>105</v>
@@ -6349,7 +6350,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>214</v>
@@ -6371,7 +6372,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>38838</v>
@@ -6398,7 +6399,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>104</v>
@@ -6415,7 +6416,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>216</v>
@@ -6432,7 +6433,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>38869</v>
@@ -6459,7 +6460,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>217</v>
@@ -6476,7 +6477,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <f>EDATE(A199,1)</f>
         <v>38899</v>
@@ -6503,7 +6504,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>218</v>
@@ -6520,7 +6521,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>38930</v>
@@ -6547,7 +6548,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>106</v>
@@ -6566,7 +6567,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>220</v>
@@ -6583,7 +6584,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>38961</v>
@@ -6610,7 +6611,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>221</v>
@@ -6627,7 +6628,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <f>EDATE(A206,1)</f>
         <v>38991</v>
@@ -6654,7 +6655,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>222</v>
@@ -6671,7 +6672,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <f>EDATE(A208,1)</f>
         <v>39022</v>
@@ -6698,7 +6699,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>107</v>
@@ -6717,7 +6718,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>105</v>
@@ -6736,7 +6737,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>105</v>
@@ -6755,7 +6756,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>223</v>
@@ -6772,7 +6773,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <f t="shared" ref="A215" si="7">EDATE(A210,1)</f>
         <v>39052</v>
@@ -6797,7 +6798,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>225</v>
@@ -6817,7 +6818,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="48" t="s">
         <v>226</v>
       </c>
@@ -6835,7 +6836,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EDATE(A215,1)</f>
         <v>39083</v>
@@ -6862,7 +6863,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>227</v>
@@ -6879,7 +6880,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EDATE(A218,1)</f>
         <v>39114</v>
@@ -6904,7 +6905,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f t="shared" ref="A221:A240" si="8">EDATE(A220,1)</f>
         <v>39142</v>
@@ -6931,7 +6932,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>229</v>
@@ -6948,7 +6949,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>39173</v>
@@ -6975,7 +6976,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>104</v>
@@ -6992,7 +6993,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>105</v>
@@ -7011,7 +7012,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>231</v>
@@ -7028,7 +7029,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="51"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A223,1)</f>
         <v>39203</v>
@@ -7055,7 +7056,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>105</v>
@@ -7072,7 +7073,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>105</v>
@@ -7089,7 +7090,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>105</v>
@@ -7106,7 +7107,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>105</v>
@@ -7123,7 +7124,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>104</v>
@@ -7140,7 +7141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>232</v>
@@ -7157,7 +7158,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A227,1)</f>
         <v>39234</v>
@@ -7184,7 +7185,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>166</v>
@@ -7201,7 +7202,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>39264</v>
@@ -7228,7 +7229,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>234</v>
@@ -7245,7 +7246,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>105</v>
@@ -7264,7 +7265,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>39295</v>
@@ -7289,7 +7290,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7316,7 +7317,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>103</v>
@@ -7335,7 +7336,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>236</v>
@@ -7352,7 +7353,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>39356</v>
@@ -7379,7 +7380,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>238</v>
@@ -7396,7 +7397,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>39387</v>
@@ -7423,7 +7424,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>105</v>
@@ -7442,7 +7443,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>104</v>
@@ -7459,7 +7460,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>105</v>
@@ -7478,7 +7479,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>240</v>
@@ -7495,7 +7496,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EDATE(A245,1)</f>
         <v>39417</v>
@@ -7520,7 +7521,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="48" t="s">
         <v>244</v>
       </c>
@@ -7538,7 +7539,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <f>EDATE(A250,1)</f>
         <v>39448</v>
@@ -7565,7 +7566,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>245</v>
@@ -7582,7 +7583,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A252,1)</f>
         <v>39479</v>
@@ -7609,7 +7610,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>246</v>
@@ -7626,7 +7627,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>39508</v>
@@ -7653,7 +7654,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>105</v>
@@ -7672,7 +7673,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>105</v>
@@ -7691,7 +7692,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>248</v>
@@ -7708,7 +7709,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A256,1)</f>
         <v>39539</v>
@@ -7735,7 +7736,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>104</v>
@@ -7752,7 +7753,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>104</v>
@@ -7769,7 +7770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>251</v>
@@ -7786,7 +7787,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f>EDATE(A260,1)</f>
         <v>39569</v>
@@ -7813,7 +7814,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>105</v>
@@ -7832,7 +7833,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>252</v>
@@ -7849,7 +7850,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="51"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>39600</v>
@@ -7874,7 +7875,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>254</v>
@@ -7891,7 +7892,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A267,1)</f>
         <v>39630</v>
@@ -7918,7 +7919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>106</v>
@@ -7937,7 +7938,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>257</v>
@@ -7954,7 +7955,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="51"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <f>EDATE(A269,1)</f>
         <v>39661</v>
@@ -7981,7 +7982,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>260</v>
@@ -7998,7 +7999,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A272,1)</f>
         <v>39692</v>
@@ -8025,7 +8026,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>105</v>
@@ -8044,7 +8045,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>261</v>
@@ -8061,7 +8062,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f>EDATE(A274,1)</f>
         <v>39722</v>
@@ -8088,7 +8089,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>103</v>
@@ -8107,7 +8108,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <f>EDATE(A277,1)</f>
         <v>39753</v>
@@ -8134,7 +8135,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f t="shared" ref="A280" si="9">EDATE(A279,1)</f>
         <v>39783</v>
@@ -8161,7 +8162,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="48" t="s">
         <v>263</v>
       </c>
@@ -8179,7 +8180,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>39814</v>
@@ -8206,7 +8207,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>264</v>
@@ -8223,7 +8224,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A282,1)</f>
         <v>39845</v>
@@ -8250,7 +8251,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>105</v>
@@ -8269,7 +8270,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>265</v>
@@ -8286,7 +8287,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>39873</v>
@@ -8313,7 +8314,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>266</v>
@@ -8330,7 +8331,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <f>EDATE(A287,1)</f>
         <v>39904</v>
@@ -8357,7 +8358,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>267</v>
@@ -8374,7 +8375,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f>EDATE(A289,1)</f>
         <v>39934</v>
@@ -8401,7 +8402,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>104</v>
@@ -8418,7 +8419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>105</v>
@@ -8437,7 +8438,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>104</v>
@@ -8454,7 +8455,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>269</v>
@@ -8471,7 +8472,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f>EDATE(A291,1)</f>
         <v>39965</v>
@@ -8496,7 +8497,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f t="shared" ref="A297:A301" si="10">EDATE(A296,1)</f>
         <v>39995</v>
@@ -8517,7 +8518,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <f t="shared" si="10"/>
         <v>40026</v>
@@ -8538,7 +8539,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -8559,7 +8560,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <f t="shared" si="10"/>
         <v>40087</v>
@@ -8580,7 +8581,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f t="shared" si="10"/>
         <v>40118</v>
@@ -8607,7 +8608,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <f>EDATE(A301,1)</f>
         <v>40148</v>
@@ -8634,7 +8635,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>274</v>
@@ -8654,7 +8655,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="48" t="s">
         <v>275</v>
       </c>
@@ -8672,7 +8673,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f>EDATE(A302,1)</f>
         <v>40179</v>
@@ -8693,7 +8694,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <f>EDATE(A305,1)</f>
         <v>40210</v>
@@ -8714,7 +8715,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f t="shared" ref="A307:A315" si="11">EDATE(A306,1)</f>
         <v>40238</v>
@@ -8735,7 +8736,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f t="shared" si="11"/>
         <v>40269</v>
@@ -8756,7 +8757,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f t="shared" si="11"/>
         <v>40299</v>
@@ -8777,7 +8778,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -8798,7 +8799,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <f t="shared" si="11"/>
         <v>40360</v>
@@ -8819,7 +8820,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f t="shared" si="11"/>
         <v>40391</v>
@@ -8840,7 +8841,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f t="shared" si="11"/>
         <v>40422</v>
@@ -8861,7 +8862,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" si="11"/>
         <v>40452</v>
@@ -8882,7 +8883,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <f t="shared" si="11"/>
         <v>40483</v>
@@ -8903,7 +8904,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -8928,7 +8929,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="48" t="s">
         <v>276</v>
       </c>
@@ -8946,7 +8947,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f>EDATE(A316,1)</f>
         <v>40544</v>
@@ -8971,7 +8972,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f>EDATE(A318,1)</f>
         <v>40575</v>
@@ -8998,7 +8999,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>105</v>
@@ -9017,7 +9018,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>104</v>
@@ -9034,7 +9035,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>105</v>
@@ -9053,7 +9054,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>278</v>
@@ -9070,7 +9071,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>40603</v>
@@ -9095,7 +9096,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>280</v>
@@ -9112,7 +9113,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>40634</v>
@@ -9139,7 +9140,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>104</v>
@@ -9156,7 +9157,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>105</v>
@@ -9175,7 +9176,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>283</v>
@@ -9192,7 +9193,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f>EDATE(A326,1)</f>
         <v>40664</v>
@@ -9219,7 +9220,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>284</v>
@@ -9236,7 +9237,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f>EDATE(A330,1)</f>
         <v>40695</v>
@@ -9263,7 +9264,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>285</v>
@@ -9280,7 +9281,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>40725</v>
@@ -9305,7 +9306,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>105</v>
@@ -9324,7 +9325,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>40756</v>
@@ -9349,7 +9350,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <f t="shared" ref="A337" si="12">EDATE(A336,1)</f>
         <v>40787</v>
@@ -9376,7 +9377,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>261</v>
@@ -9393,7 +9394,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f>EDATE(A337,1)</f>
         <v>40817</v>
@@ -9420,7 +9421,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>288</v>
@@ -9437,7 +9438,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="51"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>40848</v>
@@ -9462,7 +9463,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>105</v>
@@ -9481,7 +9482,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>40878</v>
@@ -9508,7 +9509,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>292</v>
@@ -9528,7 +9529,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="48" t="s">
         <v>293</v>
       </c>
@@ -9546,7 +9547,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>40909</v>
@@ -9573,7 +9574,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>105</v>
@@ -9592,7 +9593,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>294</v>
@@ -9609,7 +9610,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="51"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>40940</v>
@@ -9636,7 +9637,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>295</v>
@@ -9653,7 +9654,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f>EDATE(A349,1)</f>
         <v>40969</v>
@@ -9680,7 +9681,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>186</v>
@@ -9697,7 +9698,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>41000</v>
@@ -9722,7 +9723,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>104</v>
@@ -9739,7 +9740,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>296</v>
@@ -9756,7 +9757,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A353,1)</f>
         <v>41030</v>
@@ -9783,7 +9784,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>105</v>
@@ -9802,7 +9803,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>104</v>
@@ -9819,7 +9820,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>298</v>
@@ -9836,7 +9837,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f>EDATE(A356,1)</f>
         <v>41061</v>
@@ -9863,7 +9864,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>299</v>
@@ -9880,7 +9881,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f>EDATE(A360,1)</f>
         <v>41091</v>
@@ -9905,7 +9906,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f t="shared" ref="A363:A373" si="13">EDATE(A362,1)</f>
         <v>41122</v>
@@ -9932,7 +9933,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>300</v>
@@ -9949,7 +9950,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>41153</v>
@@ -9976,7 +9977,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>107</v>
@@ -9995,7 +9996,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>294</v>
@@ -10012,7 +10013,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41183</v>
@@ -10039,7 +10040,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>107</v>
@@ -10058,7 +10059,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>107</v>
@@ -10077,7 +10078,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>301</v>
@@ -10094,7 +10095,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A368,1)</f>
         <v>41214</v>
@@ -10119,7 +10120,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <f t="shared" si="13"/>
         <v>41244</v>
@@ -10146,7 +10147,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>303</v>
@@ -10166,7 +10167,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="48" t="s">
         <v>304</v>
       </c>
@@ -10184,7 +10185,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f>EDATE(A373,1)</f>
         <v>41275</v>
@@ -10211,7 +10212,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>104</v>
@@ -10228,7 +10229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>305</v>
@@ -10245,7 +10246,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A376,1)</f>
         <v>41306</v>
@@ -10270,7 +10271,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" ref="A380:A392" si="14">EDATE(A379,1)</f>
         <v>41334</v>
@@ -10295,7 +10296,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -10322,7 +10323,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>104</v>
@@ -10339,7 +10340,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>308</v>
@@ -10356,7 +10357,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A381,1)</f>
         <v>41395</v>
@@ -10383,7 +10384,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>104</v>
@@ -10400,7 +10401,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>309</v>
@@ -10417,7 +10418,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f>EDATE(A384,1)</f>
         <v>41426</v>
@@ -10444,7 +10445,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>107</v>
@@ -10463,7 +10464,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>296</v>
@@ -10480,7 +10481,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <f>EDATE(A387,1)</f>
         <v>41456</v>
@@ -10505,7 +10506,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -10530,7 +10531,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -10557,7 +10558,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>312</v>
@@ -10574,7 +10575,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <f>EDATE(A392,1)</f>
         <v>41548</v>
@@ -10601,7 +10602,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>313</v>
@@ -10618,7 +10619,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <f>EDATE(A394,1)</f>
         <v>41579</v>
@@ -10645,7 +10646,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>107</v>
@@ -10664,7 +10665,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>107</v>
@@ -10683,7 +10684,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>107</v>
@@ -10702,7 +10703,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>105</v>
@@ -10721,7 +10722,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>315</v>
@@ -10738,7 +10739,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="51"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f>EDATE(A396,1)</f>
         <v>41609</v>
@@ -10765,7 +10766,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>107</v>
@@ -10787,7 +10788,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>105</v>
@@ -10809,7 +10810,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>316</v>
@@ -10831,7 +10832,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="48" t="s">
         <v>318</v>
       </c>
@@ -10849,7 +10850,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <f>EDATE(A402,1)</f>
         <v>41640</v>
@@ -10874,7 +10875,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>319</v>
@@ -10891,7 +10892,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f>EDATE(A407,1)</f>
         <v>41671</v>
@@ -10916,7 +10917,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <f t="shared" ref="A410:A423" si="15">EDATE(A409,1)</f>
         <v>41699</v>
@@ -10941,7 +10942,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>321</v>
@@ -10958,7 +10959,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A410,1)</f>
         <v>41730</v>
@@ -10983,7 +10984,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f t="shared" si="15"/>
         <v>41760</v>
@@ -11010,7 +11011,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>104</v>
@@ -11027,7 +11028,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>107</v>
@@ -11046,7 +11047,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>107</v>
@@ -11065,7 +11066,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>323</v>
@@ -11082,7 +11083,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f>EDATE(A413,1)</f>
         <v>41791</v>
@@ -11107,7 +11108,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <f t="shared" si="15"/>
         <v>41821</v>
@@ -11134,7 +11135,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>105</v>
@@ -11153,7 +11154,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>326</v>
@@ -11170,7 +11171,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f>EDATE(A419,1)</f>
         <v>41852</v>
@@ -11195,7 +11196,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -11222,7 +11223,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>105</v>
@@ -11241,7 +11242,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>105</v>
@@ -11260,7 +11261,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>103</v>
@@ -11279,7 +11280,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>328</v>
@@ -11296,7 +11297,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EDATE(A423,1)</f>
         <v>41913</v>
@@ -11323,7 +11324,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>105</v>
@@ -11342,7 +11343,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>205</v>
@@ -11359,7 +11360,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>41944</v>
@@ -11386,7 +11387,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>107</v>
@@ -11405,7 +11406,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>331</v>
@@ -11422,7 +11423,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EDATE(A431,1)</f>
         <v>41974</v>
@@ -11449,7 +11450,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="48" t="s">
         <v>332</v>
       </c>
@@ -11467,7 +11468,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23">
         <f>EDATE(A434,1)</f>
         <v>42005</v>
@@ -11492,7 +11493,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>104</v>
@@ -11509,7 +11510,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>335</v>
@@ -11526,7 +11527,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f>EDATE(A436,1)</f>
         <v>42036</v>
@@ -11551,7 +11552,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f t="shared" ref="A440:A453" si="16">EDATE(A439,1)</f>
         <v>42064</v>
@@ -11578,7 +11579,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>107</v>
@@ -11597,7 +11598,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>337</v>
@@ -11614,7 +11615,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f>EDATE(A440,1)</f>
         <v>42095</v>
@@ -11639,7 +11640,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f t="shared" si="16"/>
         <v>42125</v>
@@ -11666,7 +11667,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>123</v>
@@ -11685,7 +11686,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>223</v>
@@ -11702,7 +11703,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f>EDATE(A444,1)</f>
         <v>42156</v>
@@ -11729,7 +11730,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>340</v>
@@ -11746,7 +11747,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f>EDATE(A447,1)</f>
         <v>42186</v>
@@ -11773,7 +11774,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>105</v>
@@ -11792,7 +11793,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>71</v>
@@ -11809,7 +11810,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23">
         <f>EDATE(A449,1)</f>
         <v>42217</v>
@@ -11834,7 +11835,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -11861,7 +11862,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>227</v>
@@ -11878,7 +11879,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23">
         <f>EDATE(A453,1)</f>
         <v>42278</v>
@@ -11905,7 +11906,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>107</v>
@@ -11924,7 +11925,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>107</v>
@@ -11943,7 +11944,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>235</v>
@@ -11960,7 +11961,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f>EDATE(A455,1)</f>
         <v>42309</v>
@@ -11987,7 +11988,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>105</v>
@@ -12006,7 +12007,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>343</v>
@@ -12023,7 +12024,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>42339</v>
@@ -12050,7 +12051,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23"/>
       <c r="B463" s="20" t="s">
         <v>345</v>
@@ -12070,7 +12071,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="48" t="s">
         <v>346</v>
       </c>
@@ -12088,7 +12089,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23">
         <f>EDATE(A462,1)</f>
         <v>42370</v>
@@ -12113,7 +12114,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f>EDATE(A465,1)</f>
         <v>42401</v>
@@ -12138,7 +12139,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>105</v>
@@ -12157,7 +12158,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>105</v>
@@ -12176,7 +12177,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23"/>
       <c r="B469" s="20" t="s">
         <v>348</v>
@@ -12193,7 +12194,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f>EDATE(A466,1)</f>
         <v>42430</v>
@@ -12218,7 +12219,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f t="shared" ref="A471:A478" si="17">EDATE(A470,1)</f>
         <v>42461</v>
@@ -12243,7 +12244,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f t="shared" si="17"/>
         <v>42491</v>
@@ -12268,7 +12269,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23"/>
       <c r="B473" s="20" t="s">
         <v>105</v>
@@ -12287,7 +12288,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>327</v>
@@ -12304,7 +12305,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23">
         <f>EDATE(A472,1)</f>
         <v>42522</v>
@@ -12331,7 +12332,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>352</v>
@@ -12348,7 +12349,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="51"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23">
         <f>EDATE(A475,1)</f>
         <v>42552</v>
@@ -12373,7 +12374,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -12400,7 +12401,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23"/>
       <c r="B479" s="20" t="s">
         <v>354</v>
@@ -12417,7 +12418,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23">
         <f>EDATE(A478,1)</f>
         <v>42614</v>
@@ -12444,7 +12445,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>355</v>
@@ -12461,7 +12462,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f>EDATE(A480,1)</f>
         <v>42644</v>
@@ -12488,7 +12489,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>103</v>
@@ -12507,7 +12508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>357</v>
@@ -12524,7 +12525,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f>EDATE(A482,1)</f>
         <v>42675</v>
@@ -12549,7 +12550,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23">
         <f>EDATE(A485,1)</f>
         <v>42705</v>
@@ -12574,7 +12575,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>361</v>
@@ -12591,7 +12592,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="48" t="s">
         <v>360</v>
       </c>
@@ -12609,7 +12610,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23">
         <f>EDATE(A486,1)</f>
         <v>42736</v>
@@ -12636,7 +12637,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23"/>
       <c r="B490" s="20" t="s">
         <v>104</v>
@@ -12653,7 +12654,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>201</v>
@@ -12670,7 +12671,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23">
         <f>EDATE(A489,1)</f>
         <v>42767</v>
@@ -12695,7 +12696,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23">
         <f t="shared" ref="A493:A507" si="18">EDATE(A492,1)</f>
         <v>42795</v>
@@ -12722,7 +12723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>105</v>
@@ -12741,7 +12742,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>364</v>
@@ -12758,7 +12759,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="51"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23">
         <f>EDATE(A493,1)</f>
         <v>42826</v>
@@ -12783,7 +12784,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>105</v>
@@ -12802,7 +12803,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23"/>
       <c r="B498" s="20" t="s">
         <v>365</v>
@@ -12819,7 +12820,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23">
         <f>EDATE(A496,1)</f>
         <v>42856</v>
@@ -12846,7 +12847,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>104</v>
@@ -12863,7 +12864,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
         <v>51</v>
@@ -12880,7 +12881,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23">
         <f>EDATE(A499,1)</f>
         <v>42887</v>
@@ -12907,7 +12908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -12932,7 +12933,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23">
         <f t="shared" si="18"/>
         <v>42948</v>
@@ -12957,7 +12958,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23">
         <f t="shared" si="18"/>
         <v>42979</v>
@@ -12982,7 +12983,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -13007,7 +13008,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23">
         <f t="shared" si="18"/>
         <v>43040</v>
@@ -13034,7 +13035,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>123</v>
@@ -13053,7 +13054,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>123</v>
@@ -13072,7 +13073,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23"/>
       <c r="B510" s="20" t="s">
         <v>105</v>
@@ -13091,7 +13092,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23">
         <f>EDATE(A507,1)</f>
         <v>43070</v>
@@ -13116,7 +13117,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="48" t="s">
         <v>48</v>
       </c>
@@ -13138,7 +13139,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43101</v>
       </c>
@@ -13158,7 +13159,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43132</v>
       </c>
@@ -13182,7 +13183,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>105</v>
@@ -13204,7 +13205,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>43160</v>
       </c>
@@ -13224,7 +13225,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43191</v>
       </c>
@@ -13244,7 +13245,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="41">
         <v>43221</v>
       </c>
@@ -13266,7 +13267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>49</v>
@@ -13288,7 +13289,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>43252</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>43282</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>104</v>
@@ -13358,7 +13359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>51</v>
@@ -13380,7 +13381,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43313</v>
       </c>
@@ -13404,7 +13405,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43344</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>55</v>
@@ -13450,7 +13451,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43374</v>
       </c>
@@ -13476,7 +13477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>108</v>
@@ -13498,7 +13499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>108</v>
@@ -13520,7 +13521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>60</v>
@@ -13542,7 +13543,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43405</v>
       </c>
@@ -13562,7 +13563,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>43435</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>107</v>
@@ -13608,7 +13609,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="49"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="48" t="s">
         <v>61</v>
       </c>
@@ -13626,7 +13627,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>43466</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>43497</v>
       </c>
@@ -13676,7 +13677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>111</v>
@@ -13698,7 +13699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>112</v>
@@ -13724,7 +13725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>43525</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>43556</v>
       </c>
@@ -13772,7 +13773,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>43586</v>
       </c>
@@ -13800,7 +13801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>43617</v>
       </c>
@@ -13828,7 +13829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>43647</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>104</v>
@@ -13874,7 +13875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>107</v>
@@ -13896,7 +13897,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>104</v>
@@ -13920,7 +13921,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43678</v>
       </c>
@@ -13944,7 +13945,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43709</v>
       </c>
@@ -13968,7 +13969,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>123</v>
@@ -13990,7 +13991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>104</v>
@@ -14010,7 +14011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>106</v>
@@ -14032,7 +14033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>123</v>
@@ -14054,7 +14055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>72</v>
@@ -14074,7 +14075,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>43739</v>
       </c>
@@ -14100,7 +14101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>107</v>
@@ -14122,7 +14123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>77</v>
@@ -14144,7 +14145,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>43770</v>
       </c>
@@ -14168,7 +14169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>117</v>
@@ -14190,7 +14191,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="49"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>43800</v>
       </c>
@@ -14214,7 +14215,7 @@
         <v>43567</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>144</v>
@@ -14236,7 +14237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>81</v>
@@ -14258,7 +14259,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14274,7 +14275,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="48" t="s">
         <v>83</v>
       </c>
@@ -14292,7 +14293,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>43831</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>119</v>
@@ -14336,7 +14337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>120</v>
@@ -14358,7 +14359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>43862</v>
       </c>
@@ -14378,7 +14379,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>43891</v>
       </c>
@@ -14398,7 +14399,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>43922</v>
       </c>
@@ -14418,7 +14419,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>43952</v>
       </c>
@@ -14438,7 +14439,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>43983</v>
       </c>
@@ -14462,7 +14463,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>105</v>
@@ -14484,7 +14485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>44013</v>
       </c>
@@ -14508,7 +14509,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>105</v>
@@ -14530,7 +14531,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>106</v>
@@ -14552,7 +14553,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>106</v>
@@ -14574,7 +14575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>118</v>
@@ -14598,7 +14599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>44044</v>
       </c>
@@ -14618,7 +14619,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>44075</v>
       </c>
@@ -14638,7 +14639,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>44105</v>
       </c>
@@ -14658,7 +14659,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>44136</v>
       </c>
@@ -14678,7 +14679,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>44166</v>
       </c>
@@ -14702,7 +14703,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="23" t="s">
         <v>90</v>
       </c>
@@ -14720,7 +14721,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>44197</v>
       </c>
@@ -14740,7 +14741,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44228</v>
       </c>
@@ -14760,7 +14761,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>44256</v>
       </c>
@@ -14780,7 +14781,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>44287</v>
       </c>
@@ -14800,7 +14801,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>44317</v>
       </c>
@@ -14820,7 +14821,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44348</v>
       </c>
@@ -14840,7 +14841,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>44378</v>
       </c>
@@ -14860,7 +14861,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>44409</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>44440</v>
       </c>
@@ -14904,7 +14905,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>44470</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>44501</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>121</v>
@@ -14976,7 +14977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>123</v>
@@ -15000,7 +15001,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>121</v>
@@ -15024,7 +15025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>44531</v>
       </c>
@@ -15044,7 +15045,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="48" t="s">
         <v>95</v>
       </c>
@@ -15062,7 +15063,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44562</v>
       </c>
@@ -15082,7 +15083,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>44593</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44621</v>
       </c>
@@ -15130,7 +15131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44652</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44682</v>
       </c>
@@ -15176,7 +15177,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44713</v>
       </c>
@@ -15200,7 +15201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>104</v>
@@ -15222,7 +15223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>44743</v>
       </c>
@@ -15246,7 +15247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>105</v>
@@ -15268,7 +15269,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>123</v>
@@ -15292,7 +15293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>44774</v>
       </c>
@@ -15312,7 +15313,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44805</v>
       </c>
@@ -15338,7 +15339,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>44835</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>105</v>
@@ -15386,7 +15387,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>44866</v>
       </c>
@@ -15406,7 +15407,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>44896</v>
       </c>
@@ -15426,7 +15427,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="48" t="s">
         <v>122</v>
       </c>
@@ -15444,7 +15445,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>44927</v>
       </c>
@@ -15468,7 +15469,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>44958</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>44986</v>
       </c>
@@ -15518,7 +15519,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>123</v>
@@ -15540,7 +15541,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>45017</v>
       </c>
@@ -15566,7 +15567,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>45047</v>
       </c>
@@ -15590,7 +15591,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>45078</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>107</v>
@@ -15634,13 +15635,15 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B625" s="20"/>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A625" s="40"/>
+      <c r="B625" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="C625" s="13"/>
-      <c r="D625" s="39"/>
+      <c r="D625" s="39">
+        <v>1</v>
+      </c>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
       <c r="G625" s="13" t="str">
@@ -15650,11 +15653,13 @@
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
-      <c r="K625" s="20"/>
-    </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K625" s="49">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15670,9 +15675,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15688,9 +15693,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15706,9 +15711,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15724,9 +15729,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15742,9 +15747,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15760,9 +15765,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15778,9 +15783,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15796,9 +15801,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15814,8 +15819,10 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40"/>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A635" s="40">
+        <v>45383</v>
+      </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
@@ -15830,21 +15837,37 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="41"/>
-      <c r="B636" s="15"/>
-      <c r="C636" s="42"/>
-      <c r="D636" s="43"/>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A636" s="40"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="39"/>
       <c r="E636" s="9"/>
-      <c r="F636" s="15"/>
-      <c r="G636" s="42" t="str">
+      <c r="F636" s="20"/>
+      <c r="G636" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H636" s="43"/>
+      <c r="H636" s="39"/>
       <c r="I636" s="9"/>
-      <c r="J636" s="12"/>
-      <c r="K636" s="15"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A637" s="41"/>
+      <c r="B637" s="15"/>
+      <c r="C637" s="42"/>
+      <c r="D637" s="43"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="15"/>
+      <c r="G637" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="43"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="12"/>
+      <c r="K637" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15861,10 +15884,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15887,28 +15910,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -15921,7 +15944,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15950,7 +15973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15974,17 +15997,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16005,7 +16028,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16032,7 +16055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16058,7 +16081,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16084,7 +16107,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16110,7 +16133,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16136,7 +16159,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16162,7 +16185,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16188,7 +16211,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16214,7 +16237,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16234,7 +16257,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16254,7 +16277,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16274,7 +16297,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16295,7 +16318,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16316,7 +16339,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16337,7 +16360,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16358,7 +16381,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16379,7 +16402,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16400,7 +16423,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16421,7 +16444,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16442,7 +16465,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16463,7 +16486,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16484,7 +16507,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16505,7 +16528,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16526,7 +16549,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16547,7 +16570,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16568,7 +16591,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16589,7 +16612,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16610,7 +16633,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16631,7 +16654,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16652,7 +16675,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16673,7 +16696,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16694,7 +16717,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16703,7 +16726,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16712,7 +16735,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16721,7 +16744,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16730,7 +16753,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16739,7 +16762,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16748,7 +16771,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16757,7 +16780,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16766,7 +16789,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16775,7 +16798,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16784,7 +16807,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16793,7 +16816,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16802,7 +16825,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16811,7 +16834,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16820,7 +16843,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16829,7 +16852,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16838,7 +16861,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16847,7 +16870,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16856,7 +16879,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16865,7 +16888,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16874,7 +16897,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16883,7 +16906,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16892,7 +16915,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16901,7 +16924,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16910,7 +16933,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16919,7 +16942,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16928,7 +16951,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16937,7 +16960,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16946,7 +16969,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16955,7 +16978,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
